--- a/config_3.30/fish_3d_yutu_random_3.xlsx
+++ b/config_3.30/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,74 +262,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>37,38,37,38,37,38,145,146,192,193,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>26,27,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,143,144,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,145,146,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,147,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
+    <t>34,36,34,36,34,36,143,144,190,191,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,23 +442,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
+    <t>40,40,40,147,194,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,105 +450,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1201,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1242,10 +1234,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1253,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1275,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1297,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1319,9 +1311,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="11">
@@ -1339,9 +1331,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="11">
@@ -1359,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1380,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1402,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>50</v>
@@ -1424,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>50</v>
@@ -1445,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -1468,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>52</v>
@@ -1491,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>52</v>
@@ -1513,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>54</v>
@@ -1535,10 +1527,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1555,10 +1547,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1567,7 +1559,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1577,10 +1569,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1589,7 +1581,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1599,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1627,10 +1619,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1655,10 +1647,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1683,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1711,10 +1703,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D22" s="24">
         <v>3000</v>
@@ -1739,10 +1731,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1765,10 +1757,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1791,10 +1783,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1817,10 +1809,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1843,10 +1835,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1869,10 +1861,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1895,10 +1887,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1921,10 +1913,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1947,10 +1939,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1973,10 +1965,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -2740,13 +2732,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,13 +2747,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2770,13 +2762,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2785,13 +2777,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
